--- a/v0.2-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
+++ b/v0.2-levensonderhoud-behandelen-Entiteiten-Attributen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{8049139D-1128-4826-8A65-5C9F297DF9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="40800" windowHeight="19935" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="38700" windowHeight="15225" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Behandelen LO" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,14 +924,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,13 +1317,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2906,7 +2903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>190</v>
       </c>
@@ -2914,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -2925,7 +2922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>224</v>
       </c>
@@ -2933,203 +2930,94 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>105</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" t="s">
         <v>202</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="9" t="s">
+      <c r="D164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
         <v>203</v>
       </c>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9" t="s">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>204</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="11"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9" t="s">
+      <c r="D165" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>205</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" t="s">
         <v>206</v>
       </c>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="11"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9" t="s">
+      <c r="L166" s="8"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>207</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" t="s">
         <v>206</v>
       </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="11"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9" t="s">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>208</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" t="s">
         <v>209</v>
       </c>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="11"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9" t="s">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>210</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" t="s">
         <v>209</v>
       </c>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="11"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9" t="s">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>211</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E170" t="s">
         <v>212</v>
       </c>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="11"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9" t="s">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>213</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" t="s">
         <v>212</v>
       </c>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="11"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="11"/>
-      <c r="L172" s="11"/>
-      <c r="M172" s="11"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
-      <c r="L174" s="11"/>
-      <c r="M174" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:E139" xr:uid="{22B90832-9B45-4A7C-8E70-F9E2CC066ECE}"/>
